--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H2">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I2">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J2">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N2">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q2">
-        <v>0.2575028283955</v>
+        <v>0.04045117765</v>
       </c>
       <c r="R2">
-        <v>1.030011313582</v>
+        <v>0.1618047106</v>
       </c>
       <c r="S2">
-        <v>0.001124019387051309</v>
+        <v>0.0008831433397301802</v>
       </c>
       <c r="T2">
-        <v>0.0008068409697590172</v>
+        <v>0.0006276546321705621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H3">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I3">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J3">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q3">
-        <v>0.06837707987633335</v>
+        <v>0.04698291980633334</v>
       </c>
       <c r="R3">
-        <v>0.410262479258</v>
+        <v>0.281897518838</v>
       </c>
       <c r="S3">
-        <v>0.0002984711425884196</v>
+        <v>0.001025746470647943</v>
       </c>
       <c r="T3">
-        <v>0.0003213717871399973</v>
+        <v>0.001093505144812879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H4">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I4">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J4">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,95 +685,95 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N4">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P4">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q4">
-        <v>23.7611932686465</v>
+        <v>3.86313794724</v>
       </c>
       <c r="R4">
-        <v>95.04477307458602</v>
+        <v>15.45255178896</v>
       </c>
       <c r="S4">
-        <v>0.103719411782191</v>
+        <v>0.08434129107645218</v>
       </c>
       <c r="T4">
-        <v>0.07445162578975854</v>
+        <v>0.0599418006634737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.638861</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H5">
-        <v>1.277722</v>
+        <v>10.547429</v>
       </c>
       <c r="I5">
-        <v>0.1058208177499626</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J5">
-        <v>0.07631084478658147</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1809256666666667</v>
+        <v>0.09215</v>
       </c>
       <c r="N5">
-        <v>0.5427770000000001</v>
+        <v>0.1843</v>
       </c>
       <c r="O5">
-        <v>0.004767901157396439</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P5">
-        <v>0.0071189754494588</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q5">
-        <v>0.1155863523323333</v>
+        <v>0.3239818607833334</v>
       </c>
       <c r="R5">
-        <v>0.6935181139940001</v>
+        <v>1.9438911647</v>
       </c>
       <c r="S5">
-        <v>0.0005045431994266841</v>
+        <v>0.007073277940628543</v>
       </c>
       <c r="T5">
-        <v>0.0005432550305631345</v>
+        <v>0.007540523940465452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.638861</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H6">
-        <v>1.277722</v>
+        <v>10.547429</v>
       </c>
       <c r="I6">
-        <v>0.1058208177499626</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J6">
-        <v>0.07631084478658147</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06252866666666666</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N6">
-        <v>0.187586</v>
+        <v>0.321089</v>
       </c>
       <c r="O6">
-        <v>0.001647806569754003</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P6">
-        <v>0.002460347672547249</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q6">
-        <v>0.03994712651533333</v>
+        <v>0.3762959366867779</v>
       </c>
       <c r="R6">
-        <v>0.239682759092</v>
+        <v>3.386663430181001</v>
       </c>
       <c r="S6">
-        <v>0.0001743722387051293</v>
+        <v>0.008215415954706018</v>
       </c>
       <c r="T6">
-        <v>0.0001877512093607801</v>
+        <v>0.01313716381725508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>10.547429</v>
       </c>
       <c r="I7">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J7">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4030655</v>
+        <v>8.80044</v>
       </c>
       <c r="N7">
-        <v>0.8061309999999999</v>
+        <v>17.60088</v>
       </c>
       <c r="O7">
-        <v>0.01062191174620465</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P7">
-        <v>0.01057308397011603</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q7">
-        <v>1.417101581199833</v>
+        <v>30.94067202292</v>
       </c>
       <c r="R7">
-        <v>8.502609487199001</v>
+        <v>185.64403213752</v>
       </c>
       <c r="S7">
-        <v>0.006185755941457898</v>
+        <v>0.6755068705352693</v>
       </c>
       <c r="T7">
-        <v>0.006660367312157403</v>
+        <v>0.7201294466264763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.515809666666667</v>
+        <v>0.242074</v>
       </c>
       <c r="H8">
-        <v>10.547429</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I8">
-        <v>0.5823580622074128</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J8">
-        <v>0.6299361029367015</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1070296666666667</v>
+        <v>0.09215</v>
       </c>
       <c r="N8">
-        <v>0.321089</v>
+        <v>0.1843</v>
       </c>
       <c r="O8">
-        <v>0.002820533321653764</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P8">
-        <v>0.004211351453895939</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q8">
-        <v>0.3762959366867779</v>
+        <v>0.0223071191</v>
       </c>
       <c r="R8">
-        <v>3.386663430181001</v>
+        <v>0.1338427146</v>
       </c>
       <c r="S8">
-        <v>0.001642560319589724</v>
+        <v>0.0004870163195788415</v>
       </c>
       <c r="T8">
-        <v>0.00265288232296402</v>
+        <v>0.0005191876026937655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.515809666666667</v>
+        <v>0.242074</v>
       </c>
       <c r="H9">
-        <v>10.547429</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I9">
-        <v>0.5823580622074128</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J9">
-        <v>0.6299361029367015</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>37.1930565</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N9">
-        <v>74.38611300000001</v>
+        <v>0.321089</v>
       </c>
       <c r="O9">
-        <v>0.9801418472049912</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P9">
-        <v>0.9756362414539821</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q9">
-        <v>130.7637075755795</v>
+        <v>0.02590909952866667</v>
       </c>
       <c r="R9">
-        <v>784.5822454534772</v>
+        <v>0.233181895758</v>
       </c>
       <c r="S9">
-        <v>0.5707935068266928</v>
+        <v>0.0005656559343000567</v>
       </c>
       <c r="T9">
-        <v>0.6145884918253323</v>
+        <v>0.000904532979714262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.515809666666667</v>
+        <v>0.242074</v>
       </c>
       <c r="H10">
-        <v>10.547429</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I10">
-        <v>0.5823580622074128</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J10">
-        <v>0.6299361029367015</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1809256666666667</v>
+        <v>8.80044</v>
       </c>
       <c r="N10">
-        <v>0.5427770000000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O10">
-        <v>0.004767901157396439</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P10">
-        <v>0.0071189754494588</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q10">
-        <v>0.6361002078147779</v>
+        <v>2.13035771256</v>
       </c>
       <c r="R10">
-        <v>5.724901870333001</v>
+        <v>12.78214627536</v>
       </c>
       <c r="S10">
-        <v>0.002776625678817871</v>
+        <v>0.04651066629923407</v>
       </c>
       <c r="T10">
-        <v>0.00448449965153413</v>
+        <v>0.04958306398535346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.515809666666667</v>
+        <v>0.5918005</v>
       </c>
       <c r="H11">
-        <v>10.547429</v>
+        <v>1.183601</v>
       </c>
       <c r="I11">
-        <v>0.5823580622074128</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J11">
-        <v>0.6299361029367015</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.06252866666666666</v>
+        <v>0.09215</v>
       </c>
       <c r="N11">
-        <v>0.187586</v>
+        <v>0.1843</v>
       </c>
       <c r="O11">
-        <v>0.001647806569754003</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P11">
-        <v>0.002460347672547249</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q11">
-        <v>0.2198388907104445</v>
+        <v>0.05453441607499999</v>
       </c>
       <c r="R11">
-        <v>1.978550016394</v>
+        <v>0.2181376643</v>
       </c>
       <c r="S11">
-        <v>0.000959613440854585</v>
+        <v>0.001190613206849634</v>
       </c>
       <c r="T11">
-        <v>0.001549861824713798</v>
+        <v>0.0008461750893472568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5918005</v>
+      </c>
+      <c r="H12">
+        <v>1.183601</v>
+      </c>
+      <c r="I12">
+        <v>0.1162785244900383</v>
+      </c>
+      <c r="J12">
+        <v>0.08313116543038777</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.3944533333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.18336</v>
-      </c>
-      <c r="I12">
-        <v>0.06533717709725886</v>
-      </c>
-      <c r="J12">
-        <v>0.0706751556963479</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.4030655</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N12">
-        <v>0.8061309999999999</v>
+        <v>0.321089</v>
       </c>
       <c r="O12">
-        <v>0.01062191174620465</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P12">
-        <v>0.01057308397011603</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q12">
-        <v>0.1589905300266667</v>
+        <v>0.06334021024816666</v>
       </c>
       <c r="R12">
-        <v>0.9539431801599999</v>
+        <v>0.380041261489</v>
       </c>
       <c r="S12">
-        <v>0.0006940057288732275</v>
+        <v>0.001382864185111746</v>
       </c>
       <c r="T12">
-        <v>0.0007472543557785109</v>
+        <v>0.001474213311250252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3944533333333333</v>
+        <v>0.5918005</v>
       </c>
       <c r="H13">
-        <v>1.18336</v>
+        <v>1.183601</v>
       </c>
       <c r="I13">
-        <v>0.06533717709725886</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J13">
-        <v>0.0706751556963479</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1070296666666667</v>
+        <v>8.80044</v>
       </c>
       <c r="N13">
-        <v>0.321089</v>
+        <v>17.60088</v>
       </c>
       <c r="O13">
-        <v>0.002820533321653764</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P13">
-        <v>0.004211351453895939</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q13">
-        <v>0.04221820878222222</v>
+        <v>5.208104792219999</v>
       </c>
       <c r="R13">
-        <v>0.37996387904</v>
+        <v>20.83241916888</v>
       </c>
       <c r="S13">
-        <v>0.0001842856851456118</v>
+        <v>0.113705047098077</v>
       </c>
       <c r="T13">
-        <v>0.0002976379196961366</v>
+        <v>0.08081077702979027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3944533333333333</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H14">
-        <v>1.18336</v>
+        <v>0.503686</v>
       </c>
       <c r="I14">
-        <v>0.06533717709725886</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J14">
-        <v>0.0706751556963479</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>37.1930565</v>
+        <v>0.09215</v>
       </c>
       <c r="N14">
-        <v>74.38611300000001</v>
+        <v>0.1843</v>
       </c>
       <c r="O14">
-        <v>0.9801418472049912</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P14">
-        <v>0.9756362414539821</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q14">
-        <v>14.67092511328</v>
+        <v>0.01547155496666666</v>
       </c>
       <c r="R14">
-        <v>88.02555067968001</v>
+        <v>0.09282932979999999</v>
       </c>
       <c r="S14">
-        <v>0.06403970145126694</v>
+        <v>0.0003377800478963572</v>
       </c>
       <c r="T14">
-        <v>0.06895324326775985</v>
+        <v>0.0003600930939167527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3944533333333333</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H15">
-        <v>1.18336</v>
+        <v>0.503686</v>
       </c>
       <c r="I15">
-        <v>0.06533717709725886</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J15">
-        <v>0.0706751556963479</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,33 +1367,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1809256666666667</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N15">
-        <v>0.5427770000000001</v>
+        <v>0.321089</v>
       </c>
       <c r="O15">
-        <v>0.004767901157396439</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P15">
-        <v>0.0071189754494588</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q15">
-        <v>0.07136673230222222</v>
+        <v>0.01796978156155556</v>
       </c>
       <c r="R15">
-        <v>0.64230059072</v>
+        <v>0.161728034054</v>
       </c>
       <c r="S15">
-        <v>0.0003115212023030367</v>
+        <v>0.0003923221479435466</v>
       </c>
       <c r="T15">
-        <v>0.000503134698288979</v>
+        <v>0.0006273571971385578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3944533333333333</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H16">
-        <v>1.18336</v>
+        <v>0.503686</v>
       </c>
       <c r="I16">
-        <v>0.06533717709725886</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J16">
-        <v>0.0706751556963479</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06252866666666666</v>
+        <v>8.80044</v>
       </c>
       <c r="N16">
-        <v>0.187586</v>
+        <v>17.60088</v>
       </c>
       <c r="O16">
-        <v>0.001647806569754003</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P16">
-        <v>0.002460347672547249</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q16">
-        <v>0.02466464099555555</v>
+        <v>1.47755280728</v>
       </c>
       <c r="R16">
-        <v>0.22198176896</v>
+        <v>8.865316843679999</v>
       </c>
       <c r="S16">
-        <v>0.0001076630296700439</v>
+        <v>0.03225841611187215</v>
       </c>
       <c r="T16">
-        <v>0.000173885454824424</v>
+        <v>0.0343893398527265</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1470,54 +1470,54 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7290775</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H17">
-        <v>1.458155</v>
+        <v>0.398873</v>
       </c>
       <c r="I17">
-        <v>0.1207642621056823</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J17">
-        <v>0.08708705014062347</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N17">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O17">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P17">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q17">
-        <v>0.29386598707625</v>
+        <v>0.01225204898333333</v>
       </c>
       <c r="R17">
-        <v>1.175463948305</v>
+        <v>0.0735122939</v>
       </c>
       <c r="S17">
-        <v>0.001282747334182085</v>
+        <v>0.0002674907403512579</v>
       </c>
       <c r="T17">
-        <v>0.0009207786938465173</v>
+        <v>0.0002851606212002258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7290775</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H18">
-        <v>1.458155</v>
+        <v>0.398873</v>
       </c>
       <c r="I18">
-        <v>0.1207642621056823</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J18">
-        <v>0.08708705014062347</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.321089</v>
       </c>
       <c r="O18">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P18">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q18">
-        <v>0.07803292179916668</v>
+        <v>0.01423041474411111</v>
       </c>
       <c r="R18">
-        <v>0.468197530795</v>
+        <v>0.128073732697</v>
       </c>
       <c r="S18">
-        <v>0.0003406196253340061</v>
+        <v>0.0003106830686512754</v>
       </c>
       <c r="T18">
-        <v>0.0003667541752252232</v>
+        <v>0.0004968092170404737</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1594,19 +1594,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7290775</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H19">
-        <v>1.458155</v>
+        <v>0.398873</v>
       </c>
       <c r="I19">
-        <v>0.1207642621056823</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J19">
-        <v>0.08708705014062347</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N19">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O19">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P19">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q19">
-        <v>27.11662065037876</v>
+        <v>1.17008596804</v>
       </c>
       <c r="R19">
-        <v>108.466482601515</v>
+        <v>7.020515808240001</v>
       </c>
       <c r="S19">
-        <v>0.1183661069366112</v>
+        <v>0.02554569952270022</v>
       </c>
       <c r="T19">
-        <v>0.08496528227851237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.7290775</v>
-      </c>
-      <c r="H20">
-        <v>1.458155</v>
-      </c>
-      <c r="I20">
-        <v>0.1207642621056823</v>
-      </c>
-      <c r="J20">
-        <v>0.08708705014062347</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P20">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q20">
-        <v>0.1319088327391667</v>
-      </c>
-      <c r="R20">
-        <v>0.7914529964350001</v>
-      </c>
-      <c r="S20">
-        <v>0.0005757920650658098</v>
-      </c>
-      <c r="T20">
-        <v>0.000619970571916886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.7290775</v>
-      </c>
-      <c r="H21">
-        <v>1.458155</v>
-      </c>
-      <c r="I21">
-        <v>0.1207642621056823</v>
-      </c>
-      <c r="J21">
-        <v>0.08708705014062347</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.187586</v>
-      </c>
-      <c r="O21">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P21">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q21">
-        <v>0.04558824397166666</v>
-      </c>
-      <c r="R21">
-        <v>0.27352946383</v>
-      </c>
-      <c r="S21">
-        <v>0.0001989961444892377</v>
-      </c>
-      <c r="T21">
-        <v>0.0002142644211224885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H22">
-        <v>1.024728</v>
-      </c>
-      <c r="I22">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J22">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.4030655</v>
-      </c>
-      <c r="N22">
-        <v>0.8061309999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.01062191174620465</v>
-      </c>
-      <c r="P22">
-        <v>0.01057308397011603</v>
-      </c>
-      <c r="Q22">
-        <v>0.137677501228</v>
-      </c>
-      <c r="R22">
-        <v>0.8260650073679998</v>
-      </c>
-      <c r="S22">
-        <v>0.0006009727407862397</v>
-      </c>
-      <c r="T22">
-        <v>0.0006470832726205058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H23">
-        <v>1.024728</v>
-      </c>
-      <c r="I23">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J23">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.1070296666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.321089</v>
-      </c>
-      <c r="O23">
-        <v>0.002820533321653764</v>
-      </c>
-      <c r="P23">
-        <v>0.004211351453895939</v>
-      </c>
-      <c r="Q23">
-        <v>0.03655876542133333</v>
-      </c>
-      <c r="R23">
-        <v>0.329028888792</v>
-      </c>
-      <c r="S23">
-        <v>0.0001595817853974213</v>
-      </c>
-      <c r="T23">
-        <v>0.0002577389046227544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.024728</v>
-      </c>
-      <c r="I24">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J24">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>37.1930565</v>
-      </c>
-      <c r="N24">
-        <v>74.38611300000001</v>
-      </c>
-      <c r="O24">
-        <v>0.9801418472049912</v>
-      </c>
-      <c r="P24">
-        <v>0.9756362414539821</v>
-      </c>
-      <c r="Q24">
-        <v>12.704255467044</v>
-      </c>
-      <c r="R24">
-        <v>76.225532802264</v>
-      </c>
-      <c r="S24">
-        <v>0.05545503920088043</v>
-      </c>
-      <c r="T24">
-        <v>0.05970990997438228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H25">
-        <v>1.024728</v>
-      </c>
-      <c r="I25">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J25">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P25">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q25">
-        <v>0.06179986551733332</v>
-      </c>
-      <c r="R25">
-        <v>0.556198789656</v>
-      </c>
-      <c r="S25">
-        <v>0.0002697611027866297</v>
-      </c>
-      <c r="T25">
-        <v>0.0004356883899305949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H26">
-        <v>1.024728</v>
-      </c>
-      <c r="I26">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J26">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.187586</v>
-      </c>
-      <c r="O26">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P26">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q26">
-        <v>0.02135829184533333</v>
-      </c>
-      <c r="R26">
-        <v>0.192224626608</v>
-      </c>
-      <c r="S26">
-        <v>9.323056472056243E-05</v>
-      </c>
-      <c r="T26">
-        <v>0.0001505757287311742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H27">
-        <v>1.252255</v>
-      </c>
-      <c r="I27">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J27">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.4030655</v>
-      </c>
-      <c r="N27">
-        <v>0.8061309999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.01062191174620465</v>
-      </c>
-      <c r="P27">
-        <v>0.01057308397011603</v>
-      </c>
-      <c r="Q27">
-        <v>0.1682469292341666</v>
-      </c>
-      <c r="R27">
-        <v>1.009481575405</v>
-      </c>
-      <c r="S27">
-        <v>0.0007344106138538935</v>
-      </c>
-      <c r="T27">
-        <v>0.0007907593659540791</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H28">
-        <v>1.252255</v>
-      </c>
-      <c r="I28">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J28">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.1070296666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.321089</v>
-      </c>
-      <c r="O28">
-        <v>0.002820533321653764</v>
-      </c>
-      <c r="P28">
-        <v>0.004211351453895939</v>
-      </c>
-      <c r="Q28">
-        <v>0.04467614507722222</v>
-      </c>
-      <c r="R28">
-        <v>0.402085305695</v>
-      </c>
-      <c r="S28">
-        <v>0.0001950147635985821</v>
-      </c>
-      <c r="T28">
-        <v>0.0003149663442478076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H29">
-        <v>1.252255</v>
-      </c>
-      <c r="I29">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J29">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>37.1930565</v>
-      </c>
-      <c r="N29">
-        <v>74.38611300000001</v>
-      </c>
-      <c r="O29">
-        <v>0.9801418472049912</v>
-      </c>
-      <c r="P29">
-        <v>0.9756362414539821</v>
-      </c>
-      <c r="Q29">
-        <v>15.5250636558025</v>
-      </c>
-      <c r="R29">
-        <v>93.150381934815</v>
-      </c>
-      <c r="S29">
-        <v>0.06776808100734881</v>
-      </c>
-      <c r="T29">
-        <v>0.07296768831823673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H30">
-        <v>1.252255</v>
-      </c>
-      <c r="I30">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J30">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N30">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P30">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q30">
-        <v>0.07552169023722222</v>
-      </c>
-      <c r="R30">
-        <v>0.6796952121350001</v>
-      </c>
-      <c r="S30">
-        <v>0.0003296579089964078</v>
-      </c>
-      <c r="T30">
-        <v>0.0005324271072250755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H31">
-        <v>1.252255</v>
-      </c>
-      <c r="I31">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J31">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.187586</v>
-      </c>
-      <c r="O31">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P31">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q31">
-        <v>0.02610061182555555</v>
-      </c>
-      <c r="R31">
-        <v>0.23490550643</v>
-      </c>
-      <c r="S31">
-        <v>0.0001139311513144443</v>
-      </c>
-      <c r="T31">
-        <v>0.0001840090337945841</v>
+        <v>0.02723319519517433</v>
       </c>
     </row>
   </sheetData>
